--- a/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. Thank you for calling this hearing. And one other thing, can you fix the Metro for us? Umm . . .    Chairwoman Comstock. We're all working together on that.</t>
   </si>
   <si>
@@ -64,42 +61,27 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Chairwoman Comstock again for holding this hearing, and appreciate the witnesses who are here, and look forward to their testimony.    The future of America's transportation systems depends on the effective development and use of new technologies. Technology enhances the capacity and safety of our roadways, railways, and other transportation systems. Technology can relieve traffic congestion, and enable our pipelines to safely transport hazardous materials. This will boost economic efficiency, reduce cost, and improve productivity.    The federal government's investments in the transportation network should be targeted to achieve desired outcomes. The Department of Transportation's current five year research, development, and technology strategic plan merges Congress's priority from the 2012 transportation bill, commonly referred to as MAP 21, with the Department's strategic plan goals. It creates five research, development, and technology priority areas for Fiscal Years 2013 to 2018. Those include promoting safety, extending the life of future transportation systems, improving the movement of goods, reducing congestion, and improving mobility, and protecting the environment. If we focus on smart priorities, the investments we make today will improve the future of transportation.    Cutting edge concepts encompass a broad range of information and communications technologies that have the potential to improve the safety, efficiency, and performance of our nation's transportation system. The issues before us today touch on all modes of surface transportation, and impact every American. High priority research and development will not only help create autonomous automobiles, and improve crash avoidance, and other safety technologies, it will also lead to better roads. Some examples include the use of nanotechnology to create new and better road surfacing materials, and the development of new means of integrating multi-mode transportation. This will allow Americans to navigate the roads more easily and comfortably.    It is essential that we find a way to maintain a healthy, substantive research base for our state and local transportation initiatives. We have to ensure that Congress gets its priorities right, and avoid duplication of research, in order to ensure taxpayers receive maximum value for their hard earned tax dollars. This makes the Committee's jurisdiction over the research, development, and technology programs at the Department of Transportation particularly relevant.    Thank you, Madam Chair, again. I look forward to our witnesses.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Madam Chair, for holding the hearing, thank our witnesses for being here. This hearing was called to review research and development programs at the Department of Transportation, and to review the relationship between the Department and non-federal entities that also conduct transportation research.    Last year, almost to this day, the Committee held a hearing to examine the impact of research and technology on the future of transportation. These are very general topics, and it is good to have a general overview now and then, however, I hope we will also have the opportunity to move and look more thoroughly--and examine more thoroughly specific transportation R and D topics in this Congress.    As a member of the Science, Space, and Technology Committee, and the Transportation and Infrastructure Committee, for 22-1/2 years now, I am keenly aware that transportation disasters have been filling the news over the last several weeks. My thoughts and prayers are with the victims and families affected by the fatal Amtrak crash in Philadelphia last month, my Dallas district, and surrounding areas of North Texas, overwhelmed last month by days of heavy rain, where 1 night 7 inches of rain fell and shut down roads for days, and of course the rest of the state. Having a district that has five interstates crossing it, Interstate 20, 30, 35, 45 and 635, I'm keenly aware of how much we need research to make sure that when repairs are done, they can stay in place.    With respect to pipelines, the PHMSA inspectors have found that there are 54 to 74 percent corrosion of the pipeline wall, in last month's rupture that spilled 100,000 gallons of crude oil along the California coastline. In light of these recent events affecting our rails, highways, and pipelines, there are a number of technology issues on the minds of our constituents, and this Congress. As we consider reauthorization of surface transportation programs, we must keep that in mind.    We're living in a time that is truly transformational for all modes of transportation. When I think about the potential benefits of connected vehicle technology, I don't think it's too lofty to compare its potential impact to the impact of the Eisenhower interstate highway system 60 years ago on connecting goods and people across the nation. As our population grows, so too is access to public transportation and ride sharing options. From highways, public transportation, to railroads, research and development of innovative technologies and policies can improve the safe and efficient movement of people and freight. My district also has an inland port.    It is equally important to implement policies and support long term advanced research that would lead to revolutionary improvements to our transportation systems. To ensure a tech-savvy transportation workforce, it is also important that we implement policies to incorporate transportation applications in the teaching of STEM fields. My colleagues and I must come together to support a multi-year bipartisan surface transportation reauthorization bill that includes strong R and D provisions with adequate funding levels. I only hope that the Science, Space, and Technology Committee will take the steps necessary to ensure that we have a strong voice in what the bill looks like.    Again, I thank our witnesses for being here today, and I look forward to your testimony. Thank you, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Winfree</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Winfree. Thank you, Chairwoman Comstock. Ranking Member Lipinski, and Members of the Committee, thank you for the opportunity to appear before you today to discuss the Department of Transportation's surface transportation research, development and technology programs, also known as RD&amp;T. We all recognize that results driven transportation, research and technology are essential for maximizing the federal investment in transportation infrastructure and operations. Our transportation system needs to be smarter, and that's why the Department provided the Grow America Act, a bill that, at its core, shifts the foci of transportation funding discussion from short-term measures to long-term custodianship. We look forward to charting a path toward a common solution together.    Secretary Anthony Foxx highlighted the challenges we face in his strategic framework, entitled Beyond Traffic 2045: Trends and Choices. Beyond Traffic is a draft survey of the major forces shaping transportation and a discussion of the potential solutions that can be adopted to address those forces. It is not prescriptive, it doesn't advocate for specific policies, but it does underscore the critical decisions we're going to have to make, drawing on a variety of data, research, and analysis to frame key questions, such as how can we avoid a future of crumbling infrastructure in gridlock traffic, where our transportation network constrains, rather than enables, our economy? How can we ensure that we are creating the right connections so that all of us can have the best opportunities to access jobs, goods, services, and each other?    When Secretary Foxx unveiled the draft of Beyond Traffic in February, he invited the American public to join him in the discussion, to have a frank conversation about the shape, size, and condition of our transportation system, and how it will meet the needs and goals of our nation for decades to come. And we are pleased that people across the country have answered his invitation. We've received hundreds of comments at events, through webinars, from social media, and on our website, which I also encourage you to visit at transportation.gov/beyondtraffic. Thought leaders, young professionals, and Americans from all walks of life continue to contribute to this effort, and to raise tough questions about the future we all must build.    One of the most important questions is, how will we encourage the development and adoption of new technologies that can make travel safer and more convenient? Innovative technologies can support safer and more efficient vehicles, infrastructure, logistics, and transportation services. New sources of travel data can improve traveler experience, support more efficient management, and inform investment decisions. Automation and robotics will influence all modes of transportation, improving infrastructure maintenance, travel safety, and enable commercial use of autonomous vehicles.    The Department currently invests almost $1.2 billion in transportation research, development and technology activities. To address the challenges we face, the President's fiscal year 2016 budget request increases this investment by almost 30 percent, to over $1.4 billion. The President's request directs research and technology investments to the priority areas highlighted in Beyond Traffic, and other areas important to the transportation enterprise. So I'd like to provide a brief overview of these priorities, but note that my written testimony provides many more details.    The Department has a significant investment in vehicle to vehicle communication technologies, and vehicle automation innovations are developing rapidly, capturing the public's fancy. Grow America seeks to invest $935 million over six years in activities to advance vehicle automation and vehicle to vehicle technologies. The Administration made accelerating deployment of V2V technologies, and swiftly advancing a deployment framework for automated vehicles, a priority, seeking $158 million for the intelligent transportation system research program in fiscal year 2016, a 68 percent increase over inactive levels.    Moreover, in May Secretary Foxx directed the NHTSA to accelerate the timetable for its rulemaking on V2V technology in new vehicles. He also committed to the rapid testing of unlicensed devices, seeking to share the wireless spectrum used by V2V to ensure there was no interference to critical safety of life messages as soon as the production ready devices are provided by industry. And he has asked NHTSA to make sure a regulatory framework promotes the deployment of proven traffic safety innovations in an effort to ensure an accelerated and safe deployment of these applications.    So I'm certainly mindful of time. There was much more in my written testimony, but I would like to conclude by saying that I'm excited about the future of our surface transportation research programs. These programs are vital to achieving the safety, state of good repair, economic competitiveness, quality of life, and environmental sustainability goals of the U.S. Department of Transportation, and the expectations of the American public. We are addressing serious issues and seeking tangible results for the benefit of all citizens and our nation's economy, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
-    <t>Meyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Meyer. Thank you, Madam Chair, and Members of the Committee. As mentioned in my introduction, I am Chairman of the Transportation Research Board's Research and Technology Coordinating Committee, which provides guidance on highway research technology programs and advanced research priorities to the Federal Highway Administration. In my past career I've also been a Director in the State Department of Transportation, and responsible for a state transportation program, as well as for 15 years a Director at one of the nation's largest university transportation research centers, so I bring a broad perspective, in terms of some of the issues that you have before you. I'm going to summarize two Transportation Research Board reports that have focused on national transportation research, and then, with the time that's available, I'll provide my own thoughts at the end.    Special Report 313, called Framing Surface Transportation Research for the Nation's Future, was a report that focused on research efforts in other countries around the world, as well as non-transportation domestic organizations, such as the Department of Agriculture, as well as NASA. Based on the analysis, the committee for that report made the following key recommendations. One, they thought there should be a new framework for U.S. surface transportation research that's guided by key national stakeholders in transportation. To a large extent, DOT's strategic plan has started that direction. The recommendation was for the Secretary of Transportation to consider ways to strengthen the coordination of transportation research within the DOT, and, in fact, appoint what they called a Chief Scientist position within the DOT. Third recommendation, focus on making sure that there would be both basic and advanced applied research with regard to the program. And then, finally, the USDOT should continue its activities, in terms of promoting knowledge transfer and dissemination.    Special Report 313, called The Essential Federal Role in Highway Research and Innovation, focused on the Federal Highway Administration, and its role in the national transportation program. The report observed, in fact, that its--the Federal Highway's exploratory advanced research program is the type of basic research that the committee itself was looking for. It focuses on such things as connected highway and vehicle system concepts, breakthrough concepts in material sciences, human behavior and travel choices, technology for assessing performance of the system, as well as organizations, and new technology and advanced policies for energy and resource conservation. This is a type of research that we strongly recommended to Federal Highway as an RTCC, and, in fact, they took that recommendation and implemented that program.    The report concludes that, in fact, that the Federal Highway Administration is in a very unique position to take a long view in research in terms of our nation's highway system, and to do advanced research that will, in fact, contribute to a vehicle to vehicle and vehicle to infrastructure program. With its national perspective, it can lead states in terms of developing and transferring tools and processes that can improve safety and system performance. And, with these economies of scale, in terms of having division offices in every state, it's uniquely positioned to support the implementation of innovations by states and local agencies, in particular developments relating to vehicle to infrastructure programs and standardization of projects and programs that come out of the Strategic Highway Research Program.    So that summarizes, in very general terms, those two reports. Now, just my own observations, I think--I certainly congratulate the Subcommittee on the theme for this hearing, in terms of technology driving the future. My own experience in the field, and in a variety of positions, has really shown that, in fact, technology is one of the driving forces of where we are today, and will likely be in the future. So my own observations with regard to a national surface transportation research program follows. First, I do think the USDOT does have a critical role to play in establishing a research framework that guides not only its own modal agency's research programs, but also those that are under its area of responsibility, such the University Transportation's Research Program.    I think this framework needs to recognize that it's not just government agencies that are doing research. It's the private sector, it's the universities, it's others, and that needs to be provided under kind of a guiding framework in terms of what should happen. The interaction of vehicle and infrastructure in particular I think suggests a very strong role for the USDOT in things like human factors research, as well as system performance and smart infrastructure.    Third, this research portfolio should really combine both basic and applied research. One of the things that I've noticed in the field after many years is that basic research seems to be, well, that goes for National Science Foundation, and applied goes to Transportation, and I think that's a mistake. I think that the applied research community has a lot to offer in terms of understanding some of the basic concepts, the theories that underlie our research programs.    Next, I believe that this base research program should be based on peer review. This is something that we discuss a lot. Both NSF, as well as the Transportation Research Board, has long experience in peer reviewed types of reports. I think that is the best way that we need to go forward as a nation.    So, Madam Chair, and members of the Committee, I really thank you for the opportunity to present my ideas. As the Committee has noted, technology is driving our transportation future, but I would suggest that, in fact, research and development are driving technology, and that it is thus in the national interest to support, foster, and encourage the creativity that lays at the foundation of our technology future, with zero seconds left. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Smith. Chairwoman Comstock, Ranking Member Lipinski, and Members of the Committee, thank you for holding this hearing and inviting me to testify today. My name is Brian Smith, and I am the Director of the University of Virginia Center for Transportation Studies. I appreciate the Committee's focus on the role of the federal government in supporting research to tackle emerging transportation challenges.    UVACTS leads a wide range of research and education activities directly supporting local, state, and federal agencies, as well as the private sector. My testimony today will focus on the work of CTS in our new Mid-Atlantic Transportation Sustainability University Transportation Center, or MATS UTC for short, and how federal, state, and local engagement with, and support for, university research has improved the safety, efficiency, and sustainability of our nation's surface transportation system.    UVA has a long history of working closely with local and state agencies, such as the Virginia Department of Transportation, or V-DOT, to deliver applied research that advances their missions. In addition, we also develop the future leaders of the transportation industry and train over 2,000 V-DOT and local agency professionals annually to take full advantage of rapidly changing technology. To complement the applied research, basic research is essential to create the advances and develop technologies that sustain an efficient, reliable, and cost-effective system. In particular, a strong federal transportation research program is crucial as the research community seeks to develop new technologies that take advantage of rapid advances in fields such as materials and information technology.    For many states, including Virginia, the Federal University Transportation Centers, or UTC Program, has played a key role in enabling a comprehensive program that balances both short term applied research with higher risk, higher reward basic research focused on emerging challenges. The UTC program brings together federal and state resources to address critical regional needs that limited state resources cannot address alone. The program is a small, but highly leveraged federal program that successfully maximizes the support.    I will now change and discuss the new MATS UTC, which has expanded our research and education capabilities at UVA. MATS UTC began operation last July, and supports the surface transportation community in the United States, with a focus on the Mid-Atlantic region. The objective of our work is to improve the environmental sustainability of surface transportation services. Our partners in the UTC are Virginia Tech, Old Dominion University, Marshall University, Morgan State University, and the University of Delaware. Like many UTCs, the MATS UTC program focuses on research, technology transfer, undergraduate and graduate education, training of practicing transportation professionals, and outreach to introduce opportunities in surface transportation and STEM fields to the K-12 students, with a focus on traditionally underrepresented groups.    We've organized the MATS UTC program to bring together the region's researchers to work on teams to tackle complex problems. A key component of our program lies in soliciting proposals to competitively award funding to support multidisciplinary research that addresses the needs of the region and nation. Our research is reviewed by national experts in a peer review fashion. Our multi-level research program is focused on five critical areas, sustainable freight movement, coastal infrastructure resiliency, energy efficient urban transportation, enhanced water quality management, and sustainable land use practices. USDOT is integral to the operation of MATS UTC, both through the funding it provides, and through close coordination with our team. MATS UTC also works closely with local and state transportation agencies to ensure that our research is responsive to local needs.    Outside of MATS UTC, UVA continues to conduct research for the future surface transportation system. For example, UVA CTS supports the USDOT as it invests in development of connected vehicle applications, which you heard about a bit already, to provide connectivity between and among vehicles, infrastructure, and wireless devices, enabling safety, mobility, and environmental benefits. Our research is focused on using technology to allow DOTs to meet their missions more effectively, and at lower costs. An example is a recent research project on pavement roughness measurement to support roadway maintenance. This work we did provides the potential for V-DOT to improve their data collection, while also saving about $2 million a year in monitoring costs. UVA CTS also frequently interacts with private sector to involve companies in applied research, and to support rapid implementation of results. More detailed examples of technology transfer in our research is provided in my written testimony.    UVA CTS is proud to have contributed to the development of transportation technology, and to have developed leaders in the transportation industry. Thanks to federal investment in research, in particular long term support of the critical UTC program, the country is well positioned to make our transportation system safer, more efficient, and sustainable. I appreciate the opportunity to provide testimony to the Committee, and I am happy to answer questions later. Thank you.</t>
   </si>
   <si>
-    <t>Owens</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Owens. Okay. Thank you, Chairwoman Comstock, Ranking Member Lipinski, and Members of the Subcommittee on Research and Technology, for giving me the opportunity to testify today on behalf of Delphi. As Chief Technology Officer, I'm responsible for Delphi's global engineering organization, our innovation strategies, and our advanced technologies. As a leading global supplier of electronics and technologies for automotive, for commercial vehicles, and other market segments, we invest more than $1.7 billion annually into engineering development initiatives, and employ approximately 5,000 people in the U.S.    Like the Science Committee, Delphi has a long history of dedication to technological innovation, culminating this April with the first autonomous vehicle cross-country drive. Are we okay to keep going? Okay. So let me pause to show a short video that highlights some of the Delphi technologies that made it possible. Okay. Well, that was a very short video. So if we'd had a chance to see the video, what you would've seen would've been a replay of our coast to coast drive that we did back in April, so--we outfitted an Audi Q5, if you will, drove 3,400 miles through 15 states, went from San Francisco to New York City. We had a car that operated autonomously 99 percent of the time.    So--we had a bunch of film clips in there of the car going through the variety of states across the United States. Some of the things that it encountered, like some of the bridge structures, the roundabouts, the lane markings that were different state to state. So there was a little bit of color on that, but the--for us, we installed a broad suite of our active safety technologies on a--like I said, a 2014 Audi Q5. We had the latest technology. It included radars, cameras, LIDARs, V2X, GPS, and driver state monitoring. In driver state monitoring, which allows the vehicle monitor the availability of the driver in situations where a takeover may be necessary. Looks like we----    Chairwoman Comstock. I think it worked. Yeah. No, we'd love to see it, so----    [Video shown.]</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair, and I want to thank all of you for sharing your insights with the Committee. And I've learned a lot already today, so appreciate that.    Secretary Winfree, I wanted you, if you could, to elaborate a little bit. You mentioned in your testimony some of the work being done in Ann Arbor. And, as a Michigan representative, you know, I'm aware of some of the work they're doing. They've created a mobility transformation facility, and--to test how autonomous vehicles respond to real world situations. And what I was hoping you might do is just elaborate on how you work with them in this regard. And I know there are some plans to expand also through the Detroit corridor.</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and I do appreciate you all coming and testifying today. This is the kind of stuff engineers like to listen to.    So my first question is to Secretary Winfree regarding research and development technology. How does the Office of the Assistant Secretary for Research and Technology identify duplicative research programs at the Department of Transportation, and if redundancies are identified, how are they addressed?</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman. A couple of questions. Mr. Winfree, for fiscal year 2016 budget requests for the National Highway Traffic Safety Administration, Vehicle Research and Analysis Programs was 39.7 million, to be used to conduct motor vehicle safety research and develop advanced vehicle safety technology. Does this research duplicate research being done by the automakers and other private entities?</t>
@@ -670,11 +643,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -696,11 +667,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -720,13 +689,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -746,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -772,13 +737,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -798,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -824,13 +785,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -850,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -876,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -902,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -928,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -954,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -980,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1006,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1032,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1058,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1086,11 +1027,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1110,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1138,11 +1075,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1162,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1190,11 +1123,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1214,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1240,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1268,11 +1195,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1292,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1320,11 +1243,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1344,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1372,11 +1291,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1396,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1424,11 +1339,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1448,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1476,11 +1387,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1500,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1528,11 +1435,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1552,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1578,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1604,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1630,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1656,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1682,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1708,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1734,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1760,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1786,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1812,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1838,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1864,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1890,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1916,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1942,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1968,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1994,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2020,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2046,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2072,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2098,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2124,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2150,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2176,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. Thank you for calling this hearing. And one other thing, can you fix the Metro for us? Umm . . .    Chairwoman Comstock. We're all working together on that.</t>
   </si>
   <si>
@@ -61,27 +70,48 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Chairwoman Comstock again for holding this hearing, and appreciate the witnesses who are here, and look forward to their testimony.    The future of America's transportation systems depends on the effective development and use of new technologies. Technology enhances the capacity and safety of our roadways, railways, and other transportation systems. Technology can relieve traffic congestion, and enable our pipelines to safely transport hazardous materials. This will boost economic efficiency, reduce cost, and improve productivity.    The federal government's investments in the transportation network should be targeted to achieve desired outcomes. The Department of Transportation's current five year research, development, and technology strategic plan merges Congress's priority from the 2012 transportation bill, commonly referred to as MAP 21, with the Department's strategic plan goals. It creates five research, development, and technology priority areas for Fiscal Years 2013 to 2018. Those include promoting safety, extending the life of future transportation systems, improving the movement of goods, reducing congestion, and improving mobility, and protecting the environment. If we focus on smart priorities, the investments we make today will improve the future of transportation.    Cutting edge concepts encompass a broad range of information and communications technologies that have the potential to improve the safety, efficiency, and performance of our nation's transportation system. The issues before us today touch on all modes of surface transportation, and impact every American. High priority research and development will not only help create autonomous automobiles, and improve crash avoidance, and other safety technologies, it will also lead to better roads. Some examples include the use of nanotechnology to create new and better road surfacing materials, and the development of new means of integrating multi-mode transportation. This will allow Americans to navigate the roads more easily and comfortably.    It is essential that we find a way to maintain a healthy, substantive research base for our state and local transportation initiatives. We have to ensure that Congress gets its priorities right, and avoid duplication of research, in order to ensure taxpayers receive maximum value for their hard earned tax dollars. This makes the Committee's jurisdiction over the research, development, and technology programs at the Department of Transportation particularly relevant.    Thank you, Madam Chair, again. I look forward to our witnesses.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Madam Chair, for holding the hearing, thank our witnesses for being here. This hearing was called to review research and development programs at the Department of Transportation, and to review the relationship between the Department and non-federal entities that also conduct transportation research.    Last year, almost to this day, the Committee held a hearing to examine the impact of research and technology on the future of transportation. These are very general topics, and it is good to have a general overview now and then, however, I hope we will also have the opportunity to move and look more thoroughly--and examine more thoroughly specific transportation R and D topics in this Congress.    As a member of the Science, Space, and Technology Committee, and the Transportation and Infrastructure Committee, for 22-1/2 years now, I am keenly aware that transportation disasters have been filling the news over the last several weeks. My thoughts and prayers are with the victims and families affected by the fatal Amtrak crash in Philadelphia last month, my Dallas district, and surrounding areas of North Texas, overwhelmed last month by days of heavy rain, where 1 night 7 inches of rain fell and shut down roads for days, and of course the rest of the state. Having a district that has five interstates crossing it, Interstate 20, 30, 35, 45 and 635, I'm keenly aware of how much we need research to make sure that when repairs are done, they can stay in place.    With respect to pipelines, the PHMSA inspectors have found that there are 54 to 74 percent corrosion of the pipeline wall, in last month's rupture that spilled 100,000 gallons of crude oil along the California coastline. In light of these recent events affecting our rails, highways, and pipelines, there are a number of technology issues on the minds of our constituents, and this Congress. As we consider reauthorization of surface transportation programs, we must keep that in mind.    We're living in a time that is truly transformational for all modes of transportation. When I think about the potential benefits of connected vehicle technology, I don't think it's too lofty to compare its potential impact to the impact of the Eisenhower interstate highway system 60 years ago on connecting goods and people across the nation. As our population grows, so too is access to public transportation and ride sharing options. From highways, public transportation, to railroads, research and development of innovative technologies and policies can improve the safe and efficient movement of people and freight. My district also has an inland port.    It is equally important to implement policies and support long term advanced research that would lead to revolutionary improvements to our transportation systems. To ensure a tech-savvy transportation workforce, it is also important that we implement policies to incorporate transportation applications in the teaching of STEM fields. My colleagues and I must come together to support a multi-year bipartisan surface transportation reauthorization bill that includes strong R and D provisions with adequate funding levels. I only hope that the Science, Space, and Technology Committee will take the steps necessary to ensure that we have a strong voice in what the bill looks like.    Again, I thank our witnesses for being here today, and I look forward to your testimony. Thank you, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Winfree</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Winfree. Thank you, Chairwoman Comstock. Ranking Member Lipinski, and Members of the Committee, thank you for the opportunity to appear before you today to discuss the Department of Transportation's surface transportation research, development and technology programs, also known as RD&amp;T. We all recognize that results driven transportation, research and technology are essential for maximizing the federal investment in transportation infrastructure and operations. Our transportation system needs to be smarter, and that's why the Department provided the Grow America Act, a bill that, at its core, shifts the foci of transportation funding discussion from short-term measures to long-term custodianship. We look forward to charting a path toward a common solution together.    Secretary Anthony Foxx highlighted the challenges we face in his strategic framework, entitled Beyond Traffic 2045: Trends and Choices. Beyond Traffic is a draft survey of the major forces shaping transportation and a discussion of the potential solutions that can be adopted to address those forces. It is not prescriptive, it doesn't advocate for specific policies, but it does underscore the critical decisions we're going to have to make, drawing on a variety of data, research, and analysis to frame key questions, such as how can we avoid a future of crumbling infrastructure in gridlock traffic, where our transportation network constrains, rather than enables, our economy? How can we ensure that we are creating the right connections so that all of us can have the best opportunities to access jobs, goods, services, and each other?    When Secretary Foxx unveiled the draft of Beyond Traffic in February, he invited the American public to join him in the discussion, to have a frank conversation about the shape, size, and condition of our transportation system, and how it will meet the needs and goals of our nation for decades to come. And we are pleased that people across the country have answered his invitation. We've received hundreds of comments at events, through webinars, from social media, and on our website, which I also encourage you to visit at transportation.gov/beyondtraffic. Thought leaders, young professionals, and Americans from all walks of life continue to contribute to this effort, and to raise tough questions about the future we all must build.    One of the most important questions is, how will we encourage the development and adoption of new technologies that can make travel safer and more convenient? Innovative technologies can support safer and more efficient vehicles, infrastructure, logistics, and transportation services. New sources of travel data can improve traveler experience, support more efficient management, and inform investment decisions. Automation and robotics will influence all modes of transportation, improving infrastructure maintenance, travel safety, and enable commercial use of autonomous vehicles.    The Department currently invests almost $1.2 billion in transportation research, development and technology activities. To address the challenges we face, the President's fiscal year 2016 budget request increases this investment by almost 30 percent, to over $1.4 billion. The President's request directs research and technology investments to the priority areas highlighted in Beyond Traffic, and other areas important to the transportation enterprise. So I'd like to provide a brief overview of these priorities, but note that my written testimony provides many more details.    The Department has a significant investment in vehicle to vehicle communication technologies, and vehicle automation innovations are developing rapidly, capturing the public's fancy. Grow America seeks to invest $935 million over six years in activities to advance vehicle automation and vehicle to vehicle technologies. The Administration made accelerating deployment of V2V technologies, and swiftly advancing a deployment framework for automated vehicles, a priority, seeking $158 million for the intelligent transportation system research program in fiscal year 2016, a 68 percent increase over inactive levels.    Moreover, in May Secretary Foxx directed the NHTSA to accelerate the timetable for its rulemaking on V2V technology in new vehicles. He also committed to the rapid testing of unlicensed devices, seeking to share the wireless spectrum used by V2V to ensure there was no interference to critical safety of life messages as soon as the production ready devices are provided by industry. And he has asked NHTSA to make sure a regulatory framework promotes the deployment of proven traffic safety innovations in an effort to ensure an accelerated and safe deployment of these applications.    So I'm certainly mindful of time. There was much more in my written testimony, but I would like to conclude by saying that I'm excited about the future of our surface transportation research programs. These programs are vital to achieving the safety, state of good repair, economic competitiveness, quality of life, and environmental sustainability goals of the U.S. Department of Transportation, and the expectations of the American public. We are addressing serious issues and seeking tangible results for the benefit of all citizens and our nation's economy, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
+    <t>Meyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Meyer. Thank you, Madam Chair, and Members of the Committee. As mentioned in my introduction, I am Chairman of the Transportation Research Board's Research and Technology Coordinating Committee, which provides guidance on highway research technology programs and advanced research priorities to the Federal Highway Administration. In my past career I've also been a Director in the State Department of Transportation, and responsible for a state transportation program, as well as for 15 years a Director at one of the nation's largest university transportation research centers, so I bring a broad perspective, in terms of some of the issues that you have before you. I'm going to summarize two Transportation Research Board reports that have focused on national transportation research, and then, with the time that's available, I'll provide my own thoughts at the end.    Special Report 313, called Framing Surface Transportation Research for the Nation's Future, was a report that focused on research efforts in other countries around the world, as well as non-transportation domestic organizations, such as the Department of Agriculture, as well as NASA. Based on the analysis, the committee for that report made the following key recommendations. One, they thought there should be a new framework for U.S. surface transportation research that's guided by key national stakeholders in transportation. To a large extent, DOT's strategic plan has started that direction. The recommendation was for the Secretary of Transportation to consider ways to strengthen the coordination of transportation research within the DOT, and, in fact, appoint what they called a Chief Scientist position within the DOT. Third recommendation, focus on making sure that there would be both basic and advanced applied research with regard to the program. And then, finally, the USDOT should continue its activities, in terms of promoting knowledge transfer and dissemination.    Special Report 313, called The Essential Federal Role in Highway Research and Innovation, focused on the Federal Highway Administration, and its role in the national transportation program. The report observed, in fact, that its--the Federal Highway's exploratory advanced research program is the type of basic research that the committee itself was looking for. It focuses on such things as connected highway and vehicle system concepts, breakthrough concepts in material sciences, human behavior and travel choices, technology for assessing performance of the system, as well as organizations, and new technology and advanced policies for energy and resource conservation. This is a type of research that we strongly recommended to Federal Highway as an RTCC, and, in fact, they took that recommendation and implemented that program.    The report concludes that, in fact, that the Federal Highway Administration is in a very unique position to take a long view in research in terms of our nation's highway system, and to do advanced research that will, in fact, contribute to a vehicle to vehicle and vehicle to infrastructure program. With its national perspective, it can lead states in terms of developing and transferring tools and processes that can improve safety and system performance. And, with these economies of scale, in terms of having division offices in every state, it's uniquely positioned to support the implementation of innovations by states and local agencies, in particular developments relating to vehicle to infrastructure programs and standardization of projects and programs that come out of the Strategic Highway Research Program.    So that summarizes, in very general terms, those two reports. Now, just my own observations, I think--I certainly congratulate the Subcommittee on the theme for this hearing, in terms of technology driving the future. My own experience in the field, and in a variety of positions, has really shown that, in fact, technology is one of the driving forces of where we are today, and will likely be in the future. So my own observations with regard to a national surface transportation research program follows. First, I do think the USDOT does have a critical role to play in establishing a research framework that guides not only its own modal agency's research programs, but also those that are under its area of responsibility, such the University Transportation's Research Program.    I think this framework needs to recognize that it's not just government agencies that are doing research. It's the private sector, it's the universities, it's others, and that needs to be provided under kind of a guiding framework in terms of what should happen. The interaction of vehicle and infrastructure in particular I think suggests a very strong role for the USDOT in things like human factors research, as well as system performance and smart infrastructure.    Third, this research portfolio should really combine both basic and applied research. One of the things that I've noticed in the field after many years is that basic research seems to be, well, that goes for National Science Foundation, and applied goes to Transportation, and I think that's a mistake. I think that the applied research community has a lot to offer in terms of understanding some of the basic concepts, the theories that underlie our research programs.    Next, I believe that this base research program should be based on peer review. This is something that we discuss a lot. Both NSF, as well as the Transportation Research Board, has long experience in peer reviewed types of reports. I think that is the best way that we need to go forward as a nation.    So, Madam Chair, and members of the Committee, I really thank you for the opportunity to present my ideas. As the Committee has noted, technology is driving our transportation future, but I would suggest that, in fact, research and development are driving technology, and that it is thus in the national interest to support, foster, and encourage the creativity that lays at the foundation of our technology future, with zero seconds left. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Smith. Chairwoman Comstock, Ranking Member Lipinski, and Members of the Committee, thank you for holding this hearing and inviting me to testify today. My name is Brian Smith, and I am the Director of the University of Virginia Center for Transportation Studies. I appreciate the Committee's focus on the role of the federal government in supporting research to tackle emerging transportation challenges.    UVACTS leads a wide range of research and education activities directly supporting local, state, and federal agencies, as well as the private sector. My testimony today will focus on the work of CTS in our new Mid-Atlantic Transportation Sustainability University Transportation Center, or MATS UTC for short, and how federal, state, and local engagement with, and support for, university research has improved the safety, efficiency, and sustainability of our nation's surface transportation system.    UVA has a long history of working closely with local and state agencies, such as the Virginia Department of Transportation, or V-DOT, to deliver applied research that advances their missions. In addition, we also develop the future leaders of the transportation industry and train over 2,000 V-DOT and local agency professionals annually to take full advantage of rapidly changing technology. To complement the applied research, basic research is essential to create the advances and develop technologies that sustain an efficient, reliable, and cost-effective system. In particular, a strong federal transportation research program is crucial as the research community seeks to develop new technologies that take advantage of rapid advances in fields such as materials and information technology.    For many states, including Virginia, the Federal University Transportation Centers, or UTC Program, has played a key role in enabling a comprehensive program that balances both short term applied research with higher risk, higher reward basic research focused on emerging challenges. The UTC program brings together federal and state resources to address critical regional needs that limited state resources cannot address alone. The program is a small, but highly leveraged federal program that successfully maximizes the support.    I will now change and discuss the new MATS UTC, which has expanded our research and education capabilities at UVA. MATS UTC began operation last July, and supports the surface transportation community in the United States, with a focus on the Mid-Atlantic region. The objective of our work is to improve the environmental sustainability of surface transportation services. Our partners in the UTC are Virginia Tech, Old Dominion University, Marshall University, Morgan State University, and the University of Delaware. Like many UTCs, the MATS UTC program focuses on research, technology transfer, undergraduate and graduate education, training of practicing transportation professionals, and outreach to introduce opportunities in surface transportation and STEM fields to the K-12 students, with a focus on traditionally underrepresented groups.    We've organized the MATS UTC program to bring together the region's researchers to work on teams to tackle complex problems. A key component of our program lies in soliciting proposals to competitively award funding to support multidisciplinary research that addresses the needs of the region and nation. Our research is reviewed by national experts in a peer review fashion. Our multi-level research program is focused on five critical areas, sustainable freight movement, coastal infrastructure resiliency, energy efficient urban transportation, enhanced water quality management, and sustainable land use practices. USDOT is integral to the operation of MATS UTC, both through the funding it provides, and through close coordination with our team. MATS UTC also works closely with local and state transportation agencies to ensure that our research is responsive to local needs.    Outside of MATS UTC, UVA continues to conduct research for the future surface transportation system. For example, UVA CTS supports the USDOT as it invests in development of connected vehicle applications, which you heard about a bit already, to provide connectivity between and among vehicles, infrastructure, and wireless devices, enabling safety, mobility, and environmental benefits. Our research is focused on using technology to allow DOTs to meet their missions more effectively, and at lower costs. An example is a recent research project on pavement roughness measurement to support roadway maintenance. This work we did provides the potential for V-DOT to improve their data collection, while also saving about $2 million a year in monitoring costs. UVA CTS also frequently interacts with private sector to involve companies in applied research, and to support rapid implementation of results. More detailed examples of technology transfer in our research is provided in my written testimony.    UVA CTS is proud to have contributed to the development of transportation technology, and to have developed leaders in the transportation industry. Thanks to federal investment in research, in particular long term support of the critical UTC program, the country is well positioned to make our transportation system safer, more efficient, and sustainable. I appreciate the opportunity to provide testimony to the Committee, and I am happy to answer questions later. Thank you.</t>
   </si>
   <si>
+    <t>Owens</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Owens. Okay. Thank you, Chairwoman Comstock, Ranking Member Lipinski, and Members of the Subcommittee on Research and Technology, for giving me the opportunity to testify today on behalf of Delphi. As Chief Technology Officer, I'm responsible for Delphi's global engineering organization, our innovation strategies, and our advanced technologies. As a leading global supplier of electronics and technologies for automotive, for commercial vehicles, and other market segments, we invest more than $1.7 billion annually into engineering development initiatives, and employ approximately 5,000 people in the U.S.    Like the Science Committee, Delphi has a long history of dedication to technological innovation, culminating this April with the first autonomous vehicle cross-country drive. Are we okay to keep going? Okay. So let me pause to show a short video that highlights some of the Delphi technologies that made it possible. Okay. Well, that was a very short video. So if we'd had a chance to see the video, what you would've seen would've been a replay of our coast to coast drive that we did back in April, so--we outfitted an Audi Q5, if you will, drove 3,400 miles through 15 states, went from San Francisco to New York City. We had a car that operated autonomously 99 percent of the time.    So--we had a bunch of film clips in there of the car going through the variety of states across the United States. Some of the things that it encountered, like some of the bridge structures, the roundabouts, the lane markings that were different state to state. So there was a little bit of color on that, but the--for us, we installed a broad suite of our active safety technologies on a--like I said, a 2014 Audi Q5. We had the latest technology. It included radars, cameras, LIDARs, V2X, GPS, and driver state monitoring. In driver state monitoring, which allows the vehicle monitor the availability of the driver in situations where a takeover may be necessary. Looks like we----    Chairwoman Comstock. I think it worked. Yeah. No, we'd love to see it, so----    [Video shown.]</t>
   </si>
   <si>
@@ -166,6 +196,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair, and I want to thank all of you for sharing your insights with the Committee. And I've learned a lot already today, so appreciate that.    Secretary Winfree, I wanted you, if you could, to elaborate a little bit. You mentioned in your testimony some of the work being done in Ann Arbor. And, as a Michigan representative, you know, I'm aware of some of the work they're doing. They've created a mobility transformation facility, and--to test how autonomous vehicles respond to real world situations. And what I was hoping you might do is just elaborate on how you work with them in this regard. And I know there are some plans to expand also through the Detroit corridor.</t>
   </si>
   <si>
@@ -184,6 +220,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and I do appreciate you all coming and testifying today. This is the kind of stuff engineers like to listen to.    So my first question is to Secretary Winfree regarding research and development technology. How does the Office of the Assistant Secretary for Research and Technology identify duplicative research programs at the Department of Transportation, and if redundancies are identified, how are they addressed?</t>
   </si>
   <si>
@@ -224,6 +266,12 @@
   </si>
   <si>
     <t>412608</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman. A couple of questions. Mr. Winfree, for fiscal year 2016 budget requests for the National Highway Traffic Safety Administration, Vehicle Research and Analysis Programs was 39.7 million, to be used to conduct motor vehicle safety research and develop advanced vehicle safety technology. Does this research duplicate research being done by the automakers and other private entities?</t>
@@ -593,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,1421 +671,1659 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Moolenaar</t>
   </si>
   <si>
@@ -218,6 +230,9 @@
   </si>
   <si>
     <t>412610</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Westerman</t>
@@ -641,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +664,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1656 +689,1776 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
